--- a/app/src/main/res/raw/sample.xlsx
+++ b/app/src/main/res/raw/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naveenkmr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naveenkmr\Downloads\__MACOSX\AppIcon.appiconset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07484ADE-11C5-4BB7-B1E5-F44CB0EF2602}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4FE125-5435-46B9-AA57-66C62731317A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR Sheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>datetime</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Battery(%)</t>
+  </si>
+  <si>
+    <t>Errors</t>
   </si>
 </sst>
 </file>
@@ -314,15 +317,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -337,6 +340,9 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -348,7 +354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D31B8E-09C8-4DA7-831C-E4F34D1E31B3}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
